--- a/Document/systemTest/Guest1.xlsx
+++ b/Document/systemTest/Guest1.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" View all challenge games" sheetId="2" r:id="rId1"/>
-    <sheet name="Register" sheetId="1" r:id="rId2"/>
+    <sheet name="Search challenge game" sheetId="3" r:id="rId2"/>
+    <sheet name="Register" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="developer">[1]Calculate!$A$15:$A$19</definedName>
@@ -124,8 +125,54 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>Module Code</t>
   </si>
@@ -206,36 +253,67 @@
 Expected Results:View successful</t>
   </si>
   <si>
-    <t>Go to LowHope website
-1. Input Email, password
-2. Click "Đăng ký"</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Expected Results:"Chúc mừng bạn đã có 20 point vào tài khoàn cho lần đăng nhập đầu tiên trong ngày"</t>
   </si>
   <si>
-    <t>View all challenge 
+    <t>View challenge 
 games</t>
   </si>
   <si>
     <t>Go to LowHope website
-1. View all challenge games</t>
-  </si>
-  <si>
-    <t>View challenage game detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to LowHope website
 1. View all challenge games
-2. </t>
+2. Click on" Closed" to view 
+challenge games closed.
+3 Click on "opening" to view challenge game is opening.</t>
+  </si>
+  <si>
+    <t>View challenge game detail</t>
+  </si>
+  <si>
+    <t>Go to LowHope website
+1. Click on link a challenge game to view detail</t>
+  </si>
+  <si>
+    <t>Expected Results:View successful</t>
+  </si>
+  <si>
+    <t>Go to LowHope website
+1. Input Email.
+2. Input Password
+3. Click "Đăng nhập".</t>
+  </si>
+  <si>
+    <t>Search challenge game</t>
+  </si>
+  <si>
+    <t>Search challenge
+games</t>
+  </si>
+  <si>
+    <t>Go to LowHope website
+1.Click on link "tìm kiếm thử thách"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Search Successful</t>
+  </si>
+  <si>
+    <t>View details</t>
+  </si>
+  <si>
+    <t>1. Click on link a challenge game to view details game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: View details Successful</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +401,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -356,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -615,28 +700,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,9 +744,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,9 +753,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -672,12 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -701,40 +787,79 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1125,220 +1250,469 @@
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="31">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" ht="135">
+      <c r="A12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="25">
+        <v>43077</v>
+      </c>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.5" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="28">
+        <v>2</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="25">
+        <v>43077</v>
+      </c>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B14:K17"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:10" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="39">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <f>COUNTIF(F9:H1007,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>COUNTIF(F$10:H$1008,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="31">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="63.75">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="81.75" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <f>COUNTIF(F$10:H$1013,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="63.75">
-      <c r="A10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" ht="45">
-      <c r="A12" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="38">
-        <v>1</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32" t="s">
+      <c r="C12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="34">
-        <v>43073</v>
-      </c>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="60">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37">
+      <c r="I12" s="45">
+        <v>43077</v>
+      </c>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="63.75">
+      <c r="A13" s="47"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="40"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="40"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="40"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="41"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="C13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="45">
+        <v>43077</v>
+      </c>
+      <c r="J13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -1357,12 +1731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,171 +1752,171 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="39">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <f>COUNTIF(F9:H1012,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <f>COUNTIF(F$10:H$1013,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="31">
         <v>1</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="63.75">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="32" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="36">
-        <v>43073</v>
-      </c>
-      <c r="J12" s="35"/>
+      <c r="I12" s="27">
+        <v>43077</v>
+      </c>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="26"/>
+      <c r="A13" s="19"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="26"/>
+      <c r="A14" s="19"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="26"/>
+      <c r="A15" s="19"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="26"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="27"/>
+      <c r="A17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">

--- a/Document/systemTest/Guest1.xlsx
+++ b/Document/systemTest/Guest1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name=" View all challenge games" sheetId="2" r:id="rId1"/>
@@ -805,6 +805,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -817,50 +841,26 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1254,35 +1254,35 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="39">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
@@ -1297,10 +1297,10 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="6">
@@ -1316,10 +1316,10 @@
         <f>COUNTIF(F$10:H$1012,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="39">
         <v>2</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="63.75">
       <c r="A10" s="21" t="s">
@@ -1356,19 +1356,19 @@
     <row r="11" spans="1:11">
       <c r="A11" s="12"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:11" ht="135">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="28">
@@ -1391,12 +1391,12 @@
         <v>22</v>
       </c>
       <c r="I12" s="25">
-        <v>43077</v>
+        <v>43074</v>
       </c>
       <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A13" s="36"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="28">
         <v>2</v>
       </c>
@@ -1417,97 +1417,97 @@
         <v>22</v>
       </c>
       <c r="I13" s="25">
-        <v>43077</v>
+        <v>43074</v>
       </c>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B14:K17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="B14:K17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
@@ -1524,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1542,37 +1542,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="39">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" ht="25.5">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1585,10 +1585,10 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="6">
@@ -1605,12 +1605,12 @@
         <f>COUNTIF(F$10:H$1008,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="39">
         <v>2</v>
       </c>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="10" spans="1:10" ht="63.75">
+      <c r="F5" s="39"/>
+    </row>
+    <row r="10" spans="1:10" ht="38.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1645,19 +1645,19 @@
     <row r="11" spans="1:10">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="15">
@@ -1679,13 +1679,13 @@
       <c r="H12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="45">
-        <v>43077</v>
+      <c r="I12" s="34">
+        <v>43074</v>
       </c>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="63.75">
-      <c r="A13" s="47"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="15">
         <v>2</v>
       </c>
@@ -1705,8 +1705,8 @@
       <c r="H13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="45">
-        <v>43077</v>
+      <c r="I13" s="34">
+        <v>43074</v>
       </c>
       <c r="J13" s="26"/>
     </row>
@@ -1752,35 +1752,35 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="39">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
@@ -1795,10 +1795,10 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="6">
@@ -1815,10 +1815,10 @@
         <f>COUNTIF(F$10:H$1013,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="39">
         <v>1</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="9" t="s">
@@ -1855,16 +1855,16 @@
     <row r="11" spans="1:10">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" ht="63.75">
       <c r="A12" s="14" t="s">
@@ -1890,7 +1890,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="27">
-        <v>43077</v>
+        <v>43074</v>
       </c>
       <c r="J12" s="26"/>
     </row>
